--- a/02_RAW-Data/codmpio.xlsx
+++ b/02_RAW-Data/codmpio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Documents/GitHub/Ninez-YA/02_RAW-Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED7EB13-0196-044B-A969-CC41D1AD5F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF9B089-3A73-A14C-BF60-0690736479EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>ANTIOQUIA</t>
   </si>
@@ -61,9 +61,6 @@
     <t>HUILA</t>
   </si>
   <si>
-    <t>LA GUAJIRA</t>
-  </si>
-  <si>
     <t>MAGDALENA</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>NARIÑO</t>
   </si>
   <si>
-    <t>NORTE SANTANDER</t>
-  </si>
-  <si>
     <t>QUINDIO</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
     <t>TOLIMA</t>
   </si>
   <si>
-    <t>VALLE</t>
-  </si>
-  <si>
     <t>ARAUCA</t>
   </si>
   <si>
@@ -121,13 +112,19 @@
     <t>VICHADA</t>
   </si>
   <si>
-    <t>comdpio</t>
-  </si>
-  <si>
     <t>Departamento</t>
   </si>
   <si>
-    <t>S</t>
+    <t>NORTE DE SANTANDER</t>
+  </si>
+  <si>
+    <t>codmpio</t>
+  </si>
+  <si>
+    <t>GUAJIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALLE </t>
   </si>
 </sst>
 </file>
@@ -495,23 +492,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B25" sqref="A25:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5</v>
       </c>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>8</v>
       </c>
@@ -527,7 +527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>11</v>
       </c>
@@ -535,7 +535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>13</v>
       </c>
@@ -543,7 +543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>15</v>
       </c>
@@ -551,7 +551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>17</v>
       </c>
@@ -559,7 +559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>18</v>
       </c>
@@ -567,7 +567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>19</v>
       </c>
@@ -575,7 +575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20</v>
       </c>
@@ -583,7 +583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>23</v>
       </c>
@@ -591,7 +591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>25</v>
       </c>
@@ -599,18 +599,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>41</v>
       </c>
@@ -618,20 +615,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -639,7 +636,7 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -647,7 +644,7 @@
         <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -655,7 +652,7 @@
         <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -663,7 +660,7 @@
         <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -671,7 +668,7 @@
         <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -679,7 +676,7 @@
         <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -687,7 +684,7 @@
         <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -695,7 +692,7 @@
         <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -703,7 +700,7 @@
         <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -711,7 +708,7 @@
         <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -719,7 +716,7 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -727,7 +724,7 @@
         <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -735,7 +732,7 @@
         <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -743,7 +740,7 @@
         <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -751,7 +748,7 @@
         <v>94</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -759,7 +756,7 @@
         <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -767,7 +764,7 @@
         <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -775,7 +772,7 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/02_RAW-Data/codmpio.xlsx
+++ b/02_RAW-Data/codmpio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Documents/GitHub/Ninez-YA/02_RAW-Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF9B089-3A73-A14C-BF60-0690736479EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E101C8-22F4-124D-B5F6-2C5F81417934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/02_RAW-Data/codmpio.xlsx
+++ b/02_RAW-Data/codmpio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Documents/GitHub/Ninez-YA/02_RAW-Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E101C8-22F4-124D-B5F6-2C5F81417934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF9B089-3A73-A14C-BF60-0690736479EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
